--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374662.9627901977</v>
+        <v>437163.7234099536</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10281900.13733446</v>
+        <v>10310946.26091463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10614374.42182442</v>
+        <v>10706538.53052416</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8179531.025012208</v>
+        <v>8130676.716615857</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="E5" t="n">
-        <v>36.49819586619022</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D6" t="n">
-        <v>40.59529591904239</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22.56635248423081</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H7" t="n">
-        <v>17.26153007479436</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.46519227902342</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G8" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R8" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.03009239479705</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
     </row>
     <row r="9">
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>23.42587357311022</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="X9" t="n">
-        <v>44.46519227902342</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.386866521745231</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>23.42587357311022</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U10" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="X10" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>208.5508667646311</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>14.41370178612481</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188213</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
         <v>225.8092030868072</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.3066000448042</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>121.0157104629189</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.90292122917639</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>298.3585057547658</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>85.52226336418049</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518637</v>
       </c>
       <c r="H15" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.2554484570975</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
         <v>194.6624603617375</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>222.0559149164688</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>216.1507874888126</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>175.6511249261796</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518633</v>
       </c>
       <c r="H18" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>103.8524426671492</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>122.9075335568251</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>55.48300085984023</v>
       </c>
       <c r="C20" t="n">
-        <v>161.9726758866858</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>104.6354923613699</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.2197608245438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>113.6164874046629</v>
+        <v>240.9368882434816</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>47.64100072776603</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>155.0219600309116</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>248.8520511838818</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>151.6120356295252</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.4126388643033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>71.36151060513971</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>214.9750222539314</v>
       </c>
       <c r="D29" t="n">
-        <v>193.1994278308468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3003,22 +3003,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>143.7815071541056</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>49.71101845020895</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3082,7 +3082,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>130.4990136198773</v>
       </c>
       <c r="Y32" t="n">
-        <v>290.7231396541203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>70.70806312128225</v>
       </c>
       <c r="V34" t="n">
-        <v>47.64100072776615</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>192.3086032274348</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2918926708653</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.547702772954</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.8776019890846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>24.5527601906376</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>208.2474868886324</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>179.1552219187527</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.9456372620864</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>284.0018715634353</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
@@ -3796,16 +3796,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>101.0954674029349</v>
       </c>
       <c r="V41" t="n">
-        <v>113.410202229787</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>79.41653965146578</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>110.3838034696614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.4209503707703</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>179.1209635988006</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>149.3857199853484</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>79.41653965146573</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.36807964162378</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C2" t="n">
-        <v>78.36807964162378</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D2" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N2" t="n">
-        <v>81.54278654139161</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W2" t="n">
-        <v>158.3355078473624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X2" t="n">
-        <v>118.3517937444931</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.36807964162378</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C3" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D3" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F3" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G3" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>81.54278654139161</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M3" t="n">
-        <v>120.7308247336138</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N3" t="n">
-        <v>158.3355078473624</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3355078473624</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.1178524655551</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W4" t="n">
-        <v>93.21247408113457</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>53.22875997826529</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.245045875396</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.8018100170248</v>
+        <v>40.631385380739</v>
       </c>
       <c r="C5" t="n">
-        <v>137.8018100170248</v>
+        <v>40.631385380739</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8018100170248</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E5" t="n">
-        <v>100.9349455057216</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F5" t="n">
-        <v>54.38027995942939</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G5" t="n">
-        <v>7.825614413137224</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H5" t="n">
-        <v>7.825614413137224</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I5" t="n">
-        <v>7.825614413137224</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>3.68712951126634</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L5" t="n">
-        <v>47.47179245755411</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M5" t="n">
-        <v>93.10002015947506</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N5" t="n">
-        <v>138.728247861396</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O5" t="n">
-        <v>184.356475563317</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P5" t="n">
-        <v>184.356475563317</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.356475563317</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y5" t="n">
-        <v>137.8018100170248</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.69247892444048</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C6" t="n">
-        <v>44.69247892444048</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D6" t="n">
-        <v>3.68712951126634</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>49.3153572131873</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L6" t="n">
-        <v>49.3153572131873</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M6" t="n">
-        <v>49.3153572131873</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N6" t="n">
-        <v>93.10002015947506</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O6" t="n">
-        <v>138.728247861396</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>184.356475563317</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.356475563317</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>184.356475563317</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S6" t="n">
-        <v>184.356475563317</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T6" t="n">
-        <v>137.8018100170248</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U6" t="n">
-        <v>137.8018100170248</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V6" t="n">
-        <v>137.8018100170248</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W6" t="n">
-        <v>137.8018100170248</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X6" t="n">
-        <v>137.8018100170248</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y6" t="n">
-        <v>91.24714447073265</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.12301847570509</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C7" t="n">
-        <v>21.12301847570509</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D7" t="n">
-        <v>21.12301847570509</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E7" t="n">
-        <v>21.12301847570509</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F7" t="n">
-        <v>21.12301847570509</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G7" t="n">
-        <v>21.12301847570509</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H7" t="n">
-        <v>3.68712951126634</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.68712951126634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>37.10940618873596</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>82.73763389065692</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>128.3658615925779</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O7" t="n">
-        <v>158.5122522155765</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>160.7870151145816</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>160.7870151145816</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>160.7870151145816</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S7" t="n">
-        <v>114.2323495682894</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T7" t="n">
-        <v>114.2323495682894</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U7" t="n">
-        <v>67.67768402199727</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V7" t="n">
-        <v>67.67768402199727</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W7" t="n">
-        <v>67.67768402199727</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X7" t="n">
-        <v>21.12301847570509</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.12301847570509</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.94561517409093</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="C8" t="n">
-        <v>99.94561517409093</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="D8" t="n">
-        <v>99.94561517409093</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="E8" t="n">
-        <v>99.94561517409093</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="F8" t="n">
-        <v>55.03127953871374</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J8" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K8" t="n">
-        <v>54.01652558873189</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L8" t="n">
-        <v>103.9944324418577</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="M8" t="n">
-        <v>151.9530299271804</v>
+        <v>27.39401655347812</v>
       </c>
       <c r="N8" t="n">
-        <v>201.9309367803062</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="O8" t="n">
-        <v>201.9309367803062</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="P8" t="n">
-        <v>201.9309367803062</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.9309367803062</v>
+        <v>97.90394325596823</v>
       </c>
       <c r="R8" t="n">
-        <v>150.9382759771985</v>
+        <v>97.90394325596823</v>
       </c>
       <c r="S8" t="n">
-        <v>99.94561517409093</v>
+        <v>97.90394325596823</v>
       </c>
       <c r="T8" t="n">
-        <v>99.94561517409093</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="U8" t="n">
-        <v>99.94561517409093</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="V8" t="n">
-        <v>99.94561517409093</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="W8" t="n">
-        <v>99.94561517409093</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="X8" t="n">
-        <v>99.94561517409093</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.94561517409093</v>
+        <v>55.85725136607994</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="C9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="D9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="E9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="F9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="G9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K9" t="n">
-        <v>4.038618735606123</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L9" t="n">
-        <v>54.01652558873189</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9944324418577</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="N9" t="n">
-        <v>151.9530299271804</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="O9" t="n">
-        <v>151.9530299271804</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="P9" t="n">
-        <v>151.9530299271804</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.9309367803062</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R9" t="n">
-        <v>201.9309367803062</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="S9" t="n">
-        <v>201.9309367803062</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="T9" t="n">
-        <v>201.9309367803062</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="U9" t="n">
-        <v>150.9382759771985</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="V9" t="n">
-        <v>99.94561517409093</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="W9" t="n">
-        <v>48.95295437098331</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="X9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.51020108080333</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="C10" t="n">
-        <v>4.038618735606123</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="D10" t="n">
-        <v>4.038618735606123</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="E10" t="n">
-        <v>4.038618735606123</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="F10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="G10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K10" t="n">
-        <v>4.038618735606123</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L10" t="n">
-        <v>37.46089541307574</v>
+        <v>28.45786185652582</v>
       </c>
       <c r="M10" t="n">
-        <v>83.0891231149967</v>
+        <v>54.78803310695625</v>
       </c>
       <c r="N10" t="n">
-        <v>133.0670299681225</v>
+        <v>81.11820435738667</v>
       </c>
       <c r="O10" t="n">
-        <v>163.2134205911211</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S10" t="n">
-        <v>165.4881834901262</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T10" t="n">
-        <v>165.4881834901262</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="U10" t="n">
-        <v>114.4955226870186</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="V10" t="n">
-        <v>114.4955226870186</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="W10" t="n">
-        <v>114.4955226870186</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="X10" t="n">
-        <v>63.50286188391095</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.51020108080333</v>
+        <v>25.79018916479258</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1646.341654153232</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="C11" t="n">
-        <v>1277.379137212821</v>
+        <v>1102.248325790971</v>
       </c>
       <c r="D11" t="n">
-        <v>919.1134386060701</v>
+        <v>743.982627184221</v>
       </c>
       <c r="E11" t="n">
-        <v>533.3251860078259</v>
+        <v>743.982627184221</v>
       </c>
       <c r="F11" t="n">
-        <v>533.3251860078259</v>
+        <v>743.982627184221</v>
       </c>
       <c r="G11" t="n">
-        <v>117.6204357321147</v>
+        <v>328.2778769085098</v>
       </c>
       <c r="H11" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K11" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U11" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V11" t="n">
-        <v>2437.640120926625</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W11" t="n">
-        <v>2437.640120926625</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X11" t="n">
-        <v>2423.080826193166</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2032.941494217354</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
         <v>113.5972052500113</v>
@@ -5138,10 +5138,10 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
         <v>2562.339328400155</v>
@@ -5159,7 +5159,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
         <v>1307.279776881661</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>833.0891146802707</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="C13" t="n">
-        <v>664.1529317523638</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D13" t="n">
-        <v>514.036292340028</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E13" t="n">
-        <v>366.1231987576349</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F13" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G13" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H13" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
@@ -5223,28 +5223,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1411.624622213393</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>1122.506284717231</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V13" t="n">
-        <v>1122.506284717231</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W13" t="n">
-        <v>833.0891146802707</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X13" t="n">
-        <v>833.0891146802707</v>
+        <v>829.9210616433568</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.0891146802707</v>
+        <v>804.7665957552998</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>768.3237648788313</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C14" t="n">
-        <v>466.9515368437143</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D14" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E14" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K14" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
         <v>1656.671415230817</v>
@@ -5305,25 +5305,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V14" t="n">
-        <v>1897.831592188879</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W14" t="n">
-        <v>1545.062936918765</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X14" t="n">
-        <v>1545.062936918765</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y14" t="n">
-        <v>1154.923604942953</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I15" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>590.2049751143496</v>
+        <v>551.2876347907473</v>
       </c>
       <c r="L15" t="n">
-        <v>884.9085321458213</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M15" t="n">
-        <v>1248.170551105041</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N15" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O15" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P15" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q15" t="n">
         <v>2538.001278676482</v>
@@ -5390,16 +5390,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.9593607670915</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C16" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E16" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F16" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G16" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H16" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020475</v>
@@ -5460,28 +5460,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T16" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U16" t="n">
-        <v>1150.699034738196</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V16" t="n">
-        <v>896.0145465323091</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="W16" t="n">
-        <v>606.5973764953485</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="X16" t="n">
-        <v>378.6078255973312</v>
+        <v>884.9455108958939</v>
       </c>
       <c r="Y16" t="n">
-        <v>378.6078255973312</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1263.725694231566</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.725694231566</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="D17" t="n">
-        <v>1263.725694231566</v>
+        <v>1096.2715704099</v>
       </c>
       <c r="E17" t="n">
         <v>877.9374416333219</v>
@@ -5515,10 +5515,10 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
         <v>795.755353087291</v>
@@ -5527,7 +5527,7 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O17" t="n">
         <v>2055.22848474084</v>
@@ -5542,25 +5542,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U17" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V17" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W17" t="n">
-        <v>1831.290404920691</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X17" t="n">
-        <v>1653.865026207378</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y17" t="n">
-        <v>1263.725694231566</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F18" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I18" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L18" t="n">
-        <v>854.8429682049857</v>
+        <v>821.9680821844934</v>
       </c>
       <c r="M18" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O18" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5627,16 +5627,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V18" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>833.0891146802707</v>
+        <v>813.841548125043</v>
       </c>
       <c r="C19" t="n">
-        <v>664.1529317523638</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D19" t="n">
-        <v>514.036292340028</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E19" t="n">
-        <v>366.1231987576349</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F19" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G19" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H19" t="n">
         <v>51.2467865680031</v>
@@ -5673,25 +5673,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
         <v>1636.446120074497</v>
@@ -5703,22 +5703,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1413.467639269232</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>1413.467639269232</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V19" t="n">
-        <v>1158.783151063345</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W19" t="n">
-        <v>1053.881693823801</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X19" t="n">
-        <v>1053.881693823801</v>
+        <v>1034.634127268573</v>
       </c>
       <c r="Y19" t="n">
-        <v>833.0891146802707</v>
+        <v>813.841548125043</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1785.600156360221</v>
+        <v>1468.322398715839</v>
       </c>
       <c r="C20" t="n">
-        <v>1621.991392838317</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="D20" t="n">
-        <v>1263.725694231566</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9374416333219</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F20" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G20" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H20" t="n">
         <v>51.2467865680031</v>
@@ -5752,16 +5752,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K20" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
         <v>1656.671415230817</v>
@@ -5779,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T20" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U20" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V20" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W20" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X20" t="n">
-        <v>2562.339328400155</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.199996424343</v>
+        <v>1524.365833927799</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L21" t="n">
-        <v>801.9449557744472</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O21" t="n">
-        <v>1884.562538506774</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P21" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q21" t="n">
         <v>2562.339328400155</v>
@@ -5864,7 +5864,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
@@ -5873,7 +5873,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>833.0891146802707</v>
+        <v>621.5776595052477</v>
       </c>
       <c r="C22" t="n">
-        <v>664.1529317523638</v>
+        <v>621.5776595052477</v>
       </c>
       <c r="D22" t="n">
-        <v>514.036292340028</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E22" t="n">
-        <v>366.1231987576349</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F22" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G22" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H22" t="n">
         <v>51.2467865680031</v>
@@ -5910,7 +5910,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020475</v>
@@ -5925,10 +5925,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
         <v>1636.446120074497</v>
@@ -5940,22 +5940,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U22" t="n">
-        <v>1413.467639269232</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.467639269232</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.050469232272</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.050469232272</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="Y22" t="n">
-        <v>1014.73757951051</v>
+        <v>803.2261243354874</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1579.968004989121</v>
+        <v>1189.460906904773</v>
       </c>
       <c r="C23" t="n">
-        <v>1211.005488048709</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D23" t="n">
-        <v>852.7397894419585</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E23" t="n">
-        <v>466.9515368437143</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F23" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L23" t="n">
         <v>795.755353087291</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V23" t="n">
-        <v>2322.875992235046</v>
+        <v>2318.96873421482</v>
       </c>
       <c r="W23" t="n">
-        <v>1970.107336964932</v>
+        <v>1966.200078944706</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.107336964932</v>
+        <v>1966.200078944706</v>
       </c>
       <c r="Y23" t="n">
-        <v>1579.968004989121</v>
+        <v>1576.060746968895</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I24" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380226</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6101,16 +6101,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>586.4082965573066</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="C25" t="n">
-        <v>417.4721136293997</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D25" t="n">
-        <v>267.3554742170639</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E25" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F25" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G25" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H25" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K25" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6174,7 +6174,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T25" t="n">
         <v>1216.838891429094</v>
@@ -6186,13 +6186,13 @@
         <v>1216.838891429094</v>
       </c>
       <c r="W25" t="n">
-        <v>1216.838891429094</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="X25" t="n">
-        <v>988.8493405310765</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="Y25" t="n">
-        <v>768.0567613875463</v>
+        <v>770.8338829770711</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1733.111475321974</v>
+        <v>1099.386652222402</v>
       </c>
       <c r="C26" t="n">
-        <v>1364.148958381563</v>
+        <v>1099.386652222402</v>
       </c>
       <c r="D26" t="n">
-        <v>1005.883259774812</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E26" t="n">
-        <v>620.0950071765681</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G26" t="n">
         <v>51.2467865680031</v>
@@ -6256,22 +6256,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T26" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U26" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V26" t="n">
-        <v>2106.577233583054</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W26" t="n">
-        <v>2106.577233583054</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X26" t="n">
-        <v>1733.111475321974</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y26" t="n">
-        <v>1733.111475321974</v>
+        <v>1485.986492286524</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L27" t="n">
-        <v>801.9449557744472</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O27" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P27" t="n">
         <v>2447.023413292609</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>369.3498906720603</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C28" t="n">
-        <v>369.3498906720603</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D28" t="n">
-        <v>219.2332512597245</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E28" t="n">
-        <v>219.2332512597245</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F28" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G28" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H28" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I28" t="n">
         <v>51.2467865680031</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1477.443454554999</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1254.464973749734</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.464973749734</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V28" t="n">
-        <v>999.7804855438475</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W28" t="n">
-        <v>999.7804855438475</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="X28" t="n">
-        <v>771.7909346458301</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y28" t="n">
-        <v>550.9983555023</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1412.134398099142</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="C29" t="n">
-        <v>1043.17188115873</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D29" t="n">
-        <v>848.0209439558549</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E29" t="n">
-        <v>462.2326913576107</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F29" t="n">
-        <v>51.24678656800311</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
@@ -6469,7 +6469,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6502,13 +6502,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X29" t="n">
-        <v>2188.873570139076</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y29" t="n">
-        <v>1798.734238163264</v>
+        <v>2209.570673130041</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G30" t="n">
         <v>165.443278618252</v>
@@ -6542,25 +6542,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380226</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6651,19 +6651,19 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T31" t="n">
-        <v>1294.583526624151</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.583526624151</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.583526624151</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.583526624151</v>
+        <v>845.8013965826035</v>
       </c>
       <c r="X31" t="n">
-        <v>1066.593975726134</v>
+        <v>845.8013965826035</v>
       </c>
       <c r="Y31" t="n">
         <v>845.8013965826035</v>
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>877.9374416333219</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C32" t="n">
-        <v>877.9374416333219</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D32" t="n">
-        <v>877.9374416333219</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E32" t="n">
         <v>877.9374416333219</v>
@@ -6691,19 +6691,19 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
         <v>795.7553530872915</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V32" t="n">
-        <v>1897.83159218888</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W32" t="n">
-        <v>1545.062936918766</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X32" t="n">
-        <v>1171.597178657686</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="Y32" t="n">
-        <v>877.9374416333219</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F33" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>2193.450786296772</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6812,16 +6812,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.2860735999672</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C34" t="n">
-        <v>369.3498906720603</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D34" t="n">
-        <v>219.2332512597245</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E34" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
         <v>1123.088724245823</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T34" t="n">
         <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1216.838891429094</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="V34" t="n">
-        <v>1168.716668471754</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="W34" t="n">
-        <v>1168.716668471754</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X34" t="n">
-        <v>940.727117573737</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y34" t="n">
-        <v>719.9345384302069</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1604.229622059684</v>
+        <v>1441.15107294488</v>
       </c>
       <c r="C35" t="n">
-        <v>1604.229622059684</v>
+        <v>1072.188556004468</v>
       </c>
       <c r="D35" t="n">
-        <v>1245.963923452934</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E35" t="n">
-        <v>860.1756708546893</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F35" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V35" t="n">
-        <v>1977.695380320764</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W35" t="n">
-        <v>1977.695380320764</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X35" t="n">
-        <v>1604.229622059684</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y35" t="n">
-        <v>1604.229622059684</v>
+        <v>1441.15107294488</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182515</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057869</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>684.9695361605188</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L36" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M36" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7049,16 +7049,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>586.4082965573066</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C37" t="n">
-        <v>417.4721136293997</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D37" t="n">
-        <v>417.4721136293997</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E37" t="n">
-        <v>269.5590200470066</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F37" t="n">
-        <v>269.5590200470066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>1216.838891429094</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W37" t="n">
-        <v>1216.838891429094</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X37" t="n">
-        <v>988.8493405310765</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y37" t="n">
-        <v>768.0567613875463</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1785.600156360221</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C38" t="n">
-        <v>1416.63763941981</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D38" t="n">
-        <v>1058.371940813059</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E38" t="n">
-        <v>672.5836882148151</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F38" t="n">
-        <v>261.5977834252075</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
         <v>51.2467865680031</v>
@@ -7174,13 +7174,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923562</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>2003.094189565802</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.339328400155</v>
+        <v>1650.325534295688</v>
       </c>
       <c r="X38" t="n">
-        <v>2562.339328400155</v>
+        <v>1650.325534295688</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.199996424343</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>981.8280128167644</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C40" t="n">
-        <v>812.8918298888575</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D40" t="n">
-        <v>662.7751904765217</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E40" t="n">
-        <v>514.8620968941286</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F40" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G40" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H40" t="n">
         <v>51.2467865680031</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1612.258607688551</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.258607688551</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U40" t="n">
-        <v>1612.258607688551</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V40" t="n">
-        <v>1612.258607688551</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W40" t="n">
-        <v>1612.258607688551</v>
+        <v>1126.597061932429</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.269056790534</v>
+        <v>898.6075110344121</v>
       </c>
       <c r="Y40" t="n">
-        <v>1163.476477647004</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.688211171978</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.725694231566</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.725694231566</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9374416333219</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F41" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7444,19 +7444,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U41" t="n">
-        <v>2100.01262627016</v>
+        <v>2251.477053265641</v>
       </c>
       <c r="V41" t="n">
-        <v>1985.456866442092</v>
+        <v>1920.41416592207</v>
       </c>
       <c r="W41" t="n">
-        <v>1632.688211171978</v>
+        <v>1567.645510651956</v>
       </c>
       <c r="X41" t="n">
-        <v>1632.688211171978</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="Y41" t="n">
-        <v>1632.688211171978</v>
+        <v>1194.179752390877</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
@@ -7523,7 +7523,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
@@ -7532,7 +7532,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C43" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D43" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E43" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F43" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7599,22 +7599,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V43" t="n">
-        <v>1524.947328691001</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W43" t="n">
-        <v>1235.53015865404</v>
+        <v>580.2476435302231</v>
       </c>
       <c r="X43" t="n">
-        <v>1235.53015865404</v>
+        <v>352.2580926322057</v>
       </c>
       <c r="Y43" t="n">
-        <v>1014.73757951051</v>
+        <v>131.4655134886756</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1498.238896393306</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C44" t="n">
-        <v>1129.276379452894</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D44" t="n">
-        <v>771.0106808461439</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E44" t="n">
-        <v>771.0106808461439</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F44" t="n">
-        <v>771.0106808461439</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G44" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
         <v>795.7553530872915</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V44" t="n">
-        <v>1977.695380320764</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.92672505065</v>
+        <v>1925.64696732164</v>
       </c>
       <c r="X44" t="n">
-        <v>1624.92672505065</v>
+        <v>1925.64696732164</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.92672505065</v>
+        <v>1535.507635345828</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
@@ -7730,22 +7730,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L45" t="n">
-        <v>717.8525085495378</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M45" t="n">
-        <v>1352.031492328576</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N45" t="n">
-        <v>1739.316620925521</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O45" t="n">
-        <v>2071.387056101683</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P45" t="n">
-        <v>2318.56978993398</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
         <v>2538.001278676482</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.2467865680031</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C46" t="n">
-        <v>51.2467865680031</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D46" t="n">
         <v>51.2467865680031</v>
@@ -7806,16 +7806,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1333.24891234856</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>1044.130574852398</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>789.4460866465112</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W46" t="n">
-        <v>500.0289166095505</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X46" t="n">
-        <v>272.0393657115332</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.2467865680031</v>
+        <v>352.2580926322059</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>208.3214547517356</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L5" t="n">
-        <v>265.39361100441</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M5" t="n">
-        <v>260.1903324891505</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>258.994301457227</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>260.5994063640988</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9290633046618</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.937315314438</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429921</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M6" t="n">
-        <v>129.5917403577182</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N6" t="n">
-        <v>162.6943935981229</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>176.9079390842335</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>170.6111050276365</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>167.4241015402145</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.8041889468121</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L8" t="n">
-        <v>271.649412930509</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M8" t="n">
-        <v>262.5442413612734</v>
+        <v>253.2744150797105</v>
       </c>
       <c r="N8" t="n">
-        <v>263.3879167614743</v>
+        <v>253.3738733961061</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>254.2058834288186</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>255.7052848083388</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>163.1615280586598</v>
       </c>
       <c r="L9" t="n">
-        <v>178.2892129380686</v>
+        <v>163.4347144076707</v>
       </c>
       <c r="M9" t="n">
-        <v>180.0744745527947</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N9" t="n">
-        <v>166.9104890920976</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>166.2376344811945</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>159.0615527957492</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1458149818875</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,13 +8616,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>160.4958522384784</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>164.4834178702207</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>153.2678715646723</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>54.95314511566545</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>168.7434581780643</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>105.1672460959146</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R24" t="n">
         <v>20.9377812015499</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878349</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>6.454437538930051</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>20.9377812015499</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L36" t="n">
-        <v>114.3555089013348</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.1672460959147</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D2" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>363.6715861718228</v>
       </c>
     </row>
     <row r="3">
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22752,28 +22752,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>263.7526768722601</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>342.1073883509969</v>
       </c>
       <c r="E5" t="n">
-        <v>345.4321742060716</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>360.7869268508822</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>369.1211025130021</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>206.909162189371</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>97.96848387364093</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.4440647590381</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D6" t="n">
-        <v>106.8497696455964</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>135.0787279711701</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T6" t="n">
-        <v>153.8760881182456</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>159.5935768864751</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22950,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>123.8676101623384</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H7" t="n">
-        <v>144.5966737725193</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>177.204255300068</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>240.2276468542498</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>179.6205364982079</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.410853462688</v>
+        <v>380.2799131655191</v>
       </c>
       <c r="G8" t="n">
-        <v>364.7274872087548</v>
+        <v>388.6918356408794</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>93.57486856939363</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S8" t="n">
-        <v>156.4291245048363</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>208.0011045670623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>359.6418060798612</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>73.07106758478345</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>148.1105163104174</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>173.5367444205265</v>
       </c>
       <c r="U9" t="n">
-        <v>175.4553912751407</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V9" t="n">
-        <v>182.3178529543487</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>201.2122489658431</v>
+        <v>225.0988505847272</v>
       </c>
       <c r="X9" t="n">
-        <v>161.307792924454</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>158.8599545768826</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>121.995174449821</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>201.321150039633</v>
       </c>
       <c r="U10" t="n">
-        <v>235.8340315500025</v>
+        <v>259.7225354167352</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.9268657603986</v>
       </c>
       <c r="X10" t="n">
-        <v>175.2269211939606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>168.1019191570182</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>92.46768579777424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
         <v>206.6581849802338</v>
@@ -23317,16 +23317,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>355.3173988923442</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>99.73298553429299</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>193.6817321229184</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>66.91438601624174</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>301.0185525624054</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>300.7156752918731</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>22.99137264153038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>147.2515091551289</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>30.08172840735921</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>165.7795825834492</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>194.0799757522894</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>182.6705556694417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>102.8021218322121</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>327.2508408036404</v>
       </c>
       <c r="C20" t="n">
-        <v>203.3002158843218</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247049</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>43.97998065684243</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>104.7965952039006</v>
@@ -24180,13 +24180,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.364892527551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
@@ -24265,7 +24265,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>214.1357710654721</v>
+        <v>86.81537022665327</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>98.79296191880314</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>63.56269332118316</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>105.8309904368012</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>255.2640101121862</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>37.24982149743411</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>215.1614877314513</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>150.2978695170761</v>
       </c>
       <c r="D29" t="n">
-        <v>161.4836137898362</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>76.96718884310633</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>236.8119798863821</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,10 +24922,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>239.2320870585917</v>
       </c>
       <c r="Y32" t="n">
-        <v>95.51479900193328</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>215.5190909999184</v>
       </c>
       <c r="V34" t="n">
-        <v>204.4966425960619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>162.3744383932481</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>17.58415307084618</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.42899805571959</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
         <v>104.7965952039006</v>
@@ -25362,22 +25362,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>201.1568951983996</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>203.3002158843216</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>148.5970365513822</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
         <v>104.7965952039006</v>
@@ -25599,10 +25599,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>170.7168230996511</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2271541212006</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>2.521126773155743</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>149.9497827255271</v>
       </c>
       <c r="V41" t="n">
-        <v>214.3420562403479</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>100.4154405304715</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25839,19 +25839,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>141.7538398541666</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.3128912927103</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>170.1200051186124</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>30.44626019658887</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,7 +26073,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>115.2459207102717</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361278.1889239305</v>
+        <v>350094.0069975297</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369032.087473025</v>
+        <v>350094.0069975297</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372370.8512842329</v>
+        <v>351322.4461888482</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820457.9145308728</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308733</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820457.9145308731</v>
+        <v>820457.9145308728</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820457.9145308733</v>
+        <v>820457.9145308731</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>820457.9145308732</v>
+        <v>820457.9145308731</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>820457.9145308732</v>
+        <v>820457.9145308731</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>820457.9145308728</v>
+        <v>820457.9145308732</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820457.9145308732</v>
+        <v>820457.9145308733</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100659.3795094922</v>
+        <v>97550.75407925651</v>
       </c>
       <c r="C2" t="n">
-        <v>103599.8082881533</v>
+        <v>97550.75407925647</v>
       </c>
       <c r="D2" t="n">
-        <v>104527.8123350629</v>
+        <v>98017.59349523796</v>
       </c>
       <c r="E2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="G2" t="n">
         <v>260075.8859201622</v>
@@ -26340,22 +26340,22 @@
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="N2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="O2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
-        <v>23057.68527395006</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1364.788721958336</v>
+        <v>3449.473224207683</v>
       </c>
       <c r="E3" t="n">
-        <v>908133.0200194606</v>
+        <v>930802.4619783189</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>6703.39546932795</v>
       </c>
       <c r="K3" t="n">
-        <v>1674.241104779983</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1111.984490967251</v>
+        <v>246.9766711007577</v>
       </c>
       <c r="M3" t="n">
-        <v>147055.8032063082</v>
+        <v>153008.4398761407</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47491.18151496474</v>
+        <v>45987.40213064622</v>
       </c>
       <c r="C4" t="n">
-        <v>46083.55904677122</v>
+        <v>45987.40213064622</v>
       </c>
       <c r="D4" t="n">
-        <v>46532.47558098388</v>
+        <v>45761.24699211979</v>
       </c>
       <c r="E4" t="n">
         <v>10154.90898475463</v>
@@ -26432,22 +26432,22 @@
         <v>10154.90898475463</v>
       </c>
       <c r="G4" t="n">
+        <v>10154.90898475462</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10154.90898475462</v>
+      </c>
+      <c r="I4" t="n">
         <v>10154.90898475463</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10154.90898475463</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10154.90898475462</v>
       </c>
       <c r="J4" t="n">
         <v>10154.90898475463</v>
       </c>
       <c r="K4" t="n">
+        <v>10154.90898475463</v>
+      </c>
+      <c r="L4" t="n">
         <v>10154.90898475462</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10154.90898475463</v>
       </c>
       <c r="M4" t="n">
         <v>10154.90898475463</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36931.51017113443</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>37198.64198163266</v>
+        <v>35324.73507170517</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10736.47359929581</v>
+        <v>6313.312938469861</v>
       </c>
       <c r="C6" t="n">
-        <v>-16904.88408041811</v>
+        <v>14899.26178448808</v>
       </c>
       <c r="D6" t="n">
-        <v>5054.556647119889</v>
+        <v>12006.10786192835</v>
       </c>
       <c r="E6" t="n">
-        <v>-722749.6782457894</v>
+        <v>-740714.403754945</v>
       </c>
       <c r="F6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233738</v>
       </c>
       <c r="G6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233735</v>
       </c>
       <c r="H6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233738</v>
       </c>
       <c r="I6" t="n">
-        <v>185383.3417736713</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="J6" t="n">
-        <v>175026.4578698674</v>
+        <v>183384.6627540458</v>
       </c>
       <c r="K6" t="n">
-        <v>183709.1006688913</v>
+        <v>190088.0582233738</v>
       </c>
       <c r="L6" t="n">
-        <v>184271.357282704</v>
+        <v>189841.0815522729</v>
       </c>
       <c r="M6" t="n">
-        <v>38327.53856736304</v>
+        <v>37079.61834723296</v>
       </c>
       <c r="N6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233736</v>
       </c>
       <c r="O6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233737</v>
       </c>
       <c r="P6" t="n">
-        <v>185383.3417736712</v>
+        <v>190088.0582233736</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175391</v>
@@ -26752,10 +26752,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26779,7 +26779,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D4" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
         <v>640.5848321000387</v>
@@ -26810,7 +26810,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="I4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
@@ -26819,16 +26819,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="M4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="M4" t="n">
-        <v>640.5848321000387</v>
       </c>
       <c r="N4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
         <v>640.5848321000387</v>
@@ -26962,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>911.0515094307498</v>
+        <v>930.3910292242967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
-        <v>6.50524192898866</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.393615304247291</v>
+        <v>0.9758413815615192</v>
       </c>
       <c r="E4" t="n">
-        <v>590.1020979049622</v>
+        <v>613.9886995238465</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463068</v>
       </c>
       <c r="K4" t="n">
-        <v>6.505241928988774</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.393615304247291</v>
+        <v>0.9758413815614055</v>
       </c>
       <c r="M4" t="n">
-        <v>590.1020979049621</v>
+        <v>613.9886995238467</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
-        <v>6.50524192898866</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.393615304247291</v>
+        <v>0.9758413815615192</v>
       </c>
       <c r="M4" t="n">
-        <v>590.1020979049622</v>
+        <v>613.9886995238465</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
         <v>0.3004027793744847</v>
@@ -32308,10 +32308,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
@@ -32320,34 +32320,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32405,10 +32405,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
         <v>203.7180217169137</v>
@@ -32417,16 +32417,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T20" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
         <v>0.3004027793744847</v>
@@ -32545,10 +32545,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J21" t="n">
         <v>189.8178475575841</v>
@@ -32557,7 +32557,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M21" t="n">
         <v>509.0653662040588</v>
@@ -32566,25 +32566,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P21" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
@@ -32642,10 +32642,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
         <v>203.7180217169137</v>
@@ -32657,13 +32657,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H44" t="n">
         <v>38.45624955336179</v>
@@ -34374,16 +34374,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190645</v>
@@ -34395,7 +34395,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
@@ -34444,7 +34444,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34456,16 +34456,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O45" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q45" t="n">
         <v>256.4624964168761</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34550,7 +34550,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S46" t="n">
         <v>29.35413767523479</v>
@@ -34559,7 +34559,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L5" t="n">
-        <v>44.22693226897754</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M5" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N6" t="n">
-        <v>44.22693226897754</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>46.08911889082925</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178749</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>46.08911889082925</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
-        <v>30.4508996191905</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>48.44302776295223</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="N8" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L9" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.52154136099267</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178749</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082925</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507654</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O10" t="n">
-        <v>30.4508996191905</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025373</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>304.6326742391977</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q12" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>355.3309544215491</v>
+        <v>316.0205096502336</v>
       </c>
       <c r="L15" t="n">
         <v>297.6803606378501</v>
@@ -35737,7 +35737,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O15" t="n">
         <v>335.424681996123</v>
@@ -35746,7 +35746,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R15" t="n">
         <v>24.58388860977091</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378501</v>
+        <v>402.8476067337648</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P20" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L21" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N21" t="n">
         <v>391.1970995928739</v>
@@ -36217,10 +36217,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K22" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
         <v>278.0112915831069</v>
@@ -36290,7 +36290,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
         <v>262.6644876295069</v>
@@ -36299,7 +36299,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>257.5646495407337</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067504</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M23" t="n">
         <v>429.0050109457277</v>
@@ -36439,7 +36439,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36457,7 +36457,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L27" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
         <v>366.9313322820405</v>
@@ -36691,7 +36691,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q27" t="n">
         <v>116.4807223308546</v>
@@ -36849,7 +36849,7 @@
         <v>402.5828984949727</v>
       </c>
       <c r="P29" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q29" t="n">
         <v>183.1958181402557</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313197</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36928,10 +36928,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>256.1339666624623</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.2916633093987</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L36" t="n">
-        <v>412.0358695391849</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820405</v>
@@ -37405,10 +37405,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P44" t="n">
         <v>308.745693963795</v>
@@ -38040,7 +38040,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>221.6479684267693</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K46" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
@@ -38189,13 +38189,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
